--- a/test_productivity/08_テスト生産性レポート.xlsx
+++ b/test_productivity/08_テスト生産性レポート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/課題用ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/test_productivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92112E16-5516-6542-9B8D-159FDD8BC9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63B761-CF27-5544-85B9-C32C2EC0096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16900" xr2:uid="{2BB7BA83-311D-5C40-99EE-42E04BF5F19F}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,16 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1時間50分</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">ジカン </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">フン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>考察事項・原因分析</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">コウサツ </t>
@@ -251,6 +240,16 @@
     </rPh>
     <rPh sb="216" eb="217">
       <t xml:space="preserve">オモイマス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間10分</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ジカン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">フン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -698,16 +697,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>45383</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="231">
@@ -718,13 +717,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>45383</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
